--- a/ai-note/files/旗舰模型和推理模型.xlsx
+++ b/ai-note/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -94,10 +94,7 @@
     <t xml:space="preserve">69.7（80）</t>
   </si>
   <si>
-    <t xml:space="preserve">DeepSeek-R1-Distill-Qwen-32B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6（83.3）</t>
+    <t xml:space="preserve">Tiny R1 32b preview</t>
   </si>
   <si>
     <t xml:space="preserve">QwQ Max Preview</t>
@@ -283,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,10 +306,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,7 +572,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,75 +629,61 @@
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="1" t="n">
         <v>39.2</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="1" t="n">
         <v>59.1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="1" t="n">
         <v>58.7</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="1" t="n">
         <v>37.6</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="H3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="1" t="n">
         <v>60.1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="1" t="n">
         <v>34.5</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="1" t="n">
         <v>29.9</v>
       </c>
     </row>
@@ -712,57 +691,46 @@
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="1" t="n">
         <v>44.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="1" t="n">
         <v>36.7</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="1" t="n">
         <v>71.4</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="1" t="n">
         <v>62.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -780,313 +748,252 @@
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="1" t="n">
         <v>79.8</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="1" t="n">
         <v>71.5</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="1" t="n">
         <v>96.3</v>
       </c>
-      <c r="F11" s="7" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="G11" s="7" t="n">
+      <c r="F11" s="1" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>49.2</v>
       </c>
-      <c r="H11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="1" t="n">
         <v>43.1</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="1" t="n">
         <v>49.1</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="1" t="n">
         <v>1189</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="1" t="n">
         <v>37.6</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="1" t="n">
         <v>59.1</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="1" t="n">
         <v>1481</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="1" t="n">
         <v>53.1</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>1691</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>90.6</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="B15" s="1" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>61.6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>66.1</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="1" t="n">
         <v>74.2</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="1" t="n">
         <v>1891</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="1" t="n">
         <v>96.6</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="1" t="n">
         <v>71.8</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="1" t="n">
         <v>48.9</v>
       </c>
-      <c r="H18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="1" t="n">
         <v>1820</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="1" t="n">
         <v>93.4</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="1" t="n">
         <v>53.8</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="1" t="n">
         <v>41.6</v>
       </c>
-      <c r="H19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>96.7</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="1" t="n">
         <v>2727</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>79.6</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="1" t="n">
         <v>76.8</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="1" t="n">
         <v>2036</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="1" t="n">
         <v>68.7</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="1" t="n">
         <v>79.7</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="1" t="n">
         <v>2130</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="1" t="n">
         <v>73.1</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="1" t="n">
         <v>49.3</v>
       </c>
-      <c r="H22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="F24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="1" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="7" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="n">
-        <v>94</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ai-note/files/旗舰模型和推理模型.xlsx
+++ b/ai-note/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -94,10 +94,7 @@
     <t xml:space="preserve">69.7（80）</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiny R1 32b preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QwQ Max Preview</t>
+    <t xml:space="preserve">QwQ 32b</t>
   </si>
   <si>
     <t xml:space="preserve">Gemini 2.0 Flash Thinking exp</t>
@@ -569,10 +566,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -809,26 +806,29 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>78.1</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>65</v>
+        <v>79.5</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>61.6</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B16" s="1" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>74.2</v>
+      </c>
       <c r="F16" s="1" t="n">
-        <v>66.1</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,59 +836,59 @@
         <v>26</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>73.3</v>
+        <v>83.3</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>74.2</v>
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>96.6</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71.8</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>83.3</v>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>1891</v>
+        <v>1820</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>96.6</v>
+        <v>93.4</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>71.8</v>
+        <v>53.8</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>48.9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B19" s="1" t="n">
+        <v>96.7</v>
+      </c>
       <c r="C19" s="1" t="n">
-        <v>60</v>
+        <v>87.7</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>1820</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>41.6</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,13 +896,16 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>96.7</v>
+        <v>79.6</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>87.7</v>
+        <v>76.8</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>2727</v>
+        <v>2036</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>68.7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,91 +913,75 @@
         <v>31</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>79.6</v>
+        <v>87.3</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>76.8</v>
+        <v>79.7</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>2036</v>
+        <v>2130</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73.1</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>49.3</v>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="1" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
